--- a/burushaski alphabets.xlsx
+++ b/burushaski alphabets.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="177">
   <si>
     <t>Letter</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">chatri </t>
     </r>
     <r>
@@ -148,6 +154,9 @@
     <t>brother</t>
   </si>
   <si>
+    <t>sxhicxam = khawnga</t>
+  </si>
+  <si>
     <t>cxh</t>
   </si>
   <si>
@@ -332,6 +341,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">khawend, </t>
     </r>
     <r>
@@ -458,6 +473,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>t</t>
     </r>
     <r>
@@ -487,6 +509,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>t</t>
     </r>
     <r>
@@ -535,6 +564,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>th</t>
     </r>
     <r>
@@ -564,6 +600,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>th</t>
     </r>
     <r>
@@ -590,6 +633,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>dua g</t>
     </r>
     <r>
@@ -658,9 +707,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -723,16 +772,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -744,6 +810,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -753,6 +834,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -767,11 +862,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -791,16 +885,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -813,51 +907,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -868,19 +917,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,7 +989,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,139 +1031,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,17 +1111,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1095,8 +1149,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1105,16 +1174,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1130,17 +1190,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1162,145 +1211,145 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1580,8 +1629,8 @@
   </sheetPr>
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15.75" customHeight="1"/>
@@ -1729,7 +1778,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:6">
+    <row r="9" customHeight="1" spans="1:9">
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
@@ -1743,216 +1792,219 @@
       <c r="F9" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="I9" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" s="3"/>
       <c r="D10" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
         <v>45</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="7"/>
@@ -1961,81 +2013,81 @@
     </row>
     <row r="22" customHeight="1" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -2044,225 +2096,225 @@
     </row>
     <row r="29" customHeight="1" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B33" s="8"/>
       <c r="D33" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E38" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F38" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H38" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:6">
       <c r="A40" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="D40" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E40" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F40" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B41" s="3"/>
       <c r="D41" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D42" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E42" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F42" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:2">
